--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.310333666666668</v>
+        <v>9.736532333333333</v>
       </c>
       <c r="H2">
-        <v>21.931001</v>
+        <v>29.209597</v>
       </c>
       <c r="I2">
-        <v>0.3571826419504521</v>
+        <v>0.3545698647072128</v>
       </c>
       <c r="J2">
-        <v>0.3571826419504521</v>
+        <v>0.3545698647072129</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5561916666666666</v>
+        <v>0.1433513333333333</v>
       </c>
       <c r="N2">
-        <v>1.668575</v>
+        <v>0.430054</v>
       </c>
       <c r="O2">
-        <v>0.01178629317764927</v>
+        <v>0.002710896760593916</v>
       </c>
       <c r="P2">
-        <v>0.01178629317764927</v>
+        <v>0.002710896760593916</v>
       </c>
       <c r="Q2">
-        <v>4.065946665952779</v>
+        <v>1.395744892026444</v>
       </c>
       <c r="R2">
-        <v>36.593519993575</v>
+        <v>12.561704028238</v>
       </c>
       <c r="S2">
-        <v>0.004209859335995356</v>
+        <v>0.0009612022976390062</v>
       </c>
       <c r="T2">
-        <v>0.004209859335995355</v>
+        <v>0.0009612022976390064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.310333666666668</v>
+        <v>9.736532333333333</v>
       </c>
       <c r="H3">
-        <v>21.931001</v>
+        <v>29.209597</v>
       </c>
       <c r="I3">
-        <v>0.3571826419504521</v>
+        <v>0.3545698647072128</v>
       </c>
       <c r="J3">
-        <v>0.3571826419504521</v>
+        <v>0.3545698647072129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.12631833333333</v>
+        <v>43.12631833333334</v>
       </c>
       <c r="N3">
         <v>129.378955</v>
       </c>
       <c r="O3">
-        <v>0.9138925697963186</v>
+        <v>0.8155556976531461</v>
       </c>
       <c r="P3">
-        <v>0.9138925697963185</v>
+        <v>0.8155556976531461</v>
       </c>
       <c r="Q3">
-        <v>315.2677768315506</v>
+        <v>419.9007928701261</v>
       </c>
       <c r="R3">
-        <v>2837.409991483955</v>
+        <v>3779.107135831136</v>
       </c>
       <c r="S3">
-        <v>0.326426562538737</v>
+        <v>0.2891714733780725</v>
       </c>
       <c r="T3">
-        <v>0.326426562538737</v>
+        <v>0.2891714733780726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7.310333666666668</v>
+        <v>9.736532333333333</v>
       </c>
       <c r="H4">
-        <v>21.931001</v>
+        <v>29.209597</v>
       </c>
       <c r="I4">
-        <v>0.3571826419504521</v>
+        <v>0.3545698647072128</v>
       </c>
       <c r="J4">
-        <v>0.3571826419504521</v>
+        <v>0.3545698647072129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.507192333333334</v>
+        <v>9.610002999999999</v>
       </c>
       <c r="N4">
-        <v>10.521577</v>
+        <v>28.830009</v>
       </c>
       <c r="O4">
-        <v>0.07432113702603212</v>
+        <v>0.18173340558626</v>
       </c>
       <c r="P4">
-        <v>0.0743211370260321</v>
+        <v>0.1817334055862599</v>
       </c>
       <c r="Q4">
-        <v>25.6387461898419</v>
+        <v>93.56810493293032</v>
       </c>
       <c r="R4">
-        <v>230.748715708577</v>
+        <v>842.1129443963729</v>
       </c>
       <c r="S4">
-        <v>0.02654622007571972</v>
+        <v>0.06443718903150122</v>
       </c>
       <c r="T4">
-        <v>0.02654622007571971</v>
+        <v>0.06443718903150122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.17625966666666</v>
+        <v>10.17625966666667</v>
       </c>
       <c r="H5">
         <v>30.528779</v>
       </c>
       <c r="I5">
-        <v>0.4972116839874968</v>
+        <v>0.37058316962423</v>
       </c>
       <c r="J5">
-        <v>0.4972116839874969</v>
+        <v>0.37058316962423</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5561916666666666</v>
+        <v>0.1433513333333333</v>
       </c>
       <c r="N5">
-        <v>1.668575</v>
+        <v>0.430054</v>
       </c>
       <c r="O5">
-        <v>0.01178629317764927</v>
+        <v>0.002710896760593916</v>
       </c>
       <c r="P5">
-        <v>0.01178629317764927</v>
+        <v>0.002710896760593916</v>
       </c>
       <c r="Q5">
-        <v>5.65995082443611</v>
+        <v>1.458780391562889</v>
       </c>
       <c r="R5">
-        <v>50.93955741992499</v>
+        <v>13.129023524066</v>
       </c>
       <c r="S5">
-        <v>0.00586028267882934</v>
+        <v>0.001004612714064951</v>
       </c>
       <c r="T5">
-        <v>0.00586028267882934</v>
+        <v>0.001004612714064951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.17625966666666</v>
+        <v>10.17625966666667</v>
       </c>
       <c r="H6">
         <v>30.528779</v>
       </c>
       <c r="I6">
-        <v>0.4972116839874968</v>
+        <v>0.37058316962423</v>
       </c>
       <c r="J6">
-        <v>0.4972116839874969</v>
+        <v>0.37058316962423</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.12631833333333</v>
+        <v>43.12631833333334</v>
       </c>
       <c r="N6">
         <v>129.378955</v>
       </c>
       <c r="O6">
-        <v>0.9138925697963186</v>
+        <v>0.8155556976531461</v>
       </c>
       <c r="P6">
-        <v>0.9138925697963185</v>
+        <v>0.8155556976531461</v>
       </c>
       <c r="Q6">
-        <v>438.8646138273271</v>
+        <v>438.8646138273273</v>
       </c>
       <c r="R6">
-        <v>3949.781524445944</v>
+        <v>3949.781524445946</v>
       </c>
       <c r="S6">
-        <v>0.4543980636120886</v>
+        <v>0.3022312154414031</v>
       </c>
       <c r="T6">
-        <v>0.4543980636120886</v>
+        <v>0.3022312154414031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.17625966666666</v>
+        <v>10.17625966666667</v>
       </c>
       <c r="H7">
         <v>30.528779</v>
       </c>
       <c r="I7">
-        <v>0.4972116839874968</v>
+        <v>0.37058316962423</v>
       </c>
       <c r="J7">
-        <v>0.4972116839874969</v>
+        <v>0.37058316962423</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.507192333333334</v>
+        <v>9.610002999999999</v>
       </c>
       <c r="N7">
-        <v>10.521577</v>
+        <v>28.830009</v>
       </c>
       <c r="O7">
-        <v>0.07432113702603212</v>
+        <v>0.18173340558626</v>
       </c>
       <c r="P7">
-        <v>0.0743211370260321</v>
+        <v>0.1817334055862599</v>
       </c>
       <c r="Q7">
-        <v>35.69009988494255</v>
+        <v>97.79388592544565</v>
       </c>
       <c r="R7">
-        <v>321.210898964483</v>
+        <v>880.1449733290109</v>
       </c>
       <c r="S7">
-        <v>0.03695333769657893</v>
+        <v>0.06734734146876196</v>
       </c>
       <c r="T7">
-        <v>0.03695333769657893</v>
+        <v>0.06734734146876196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>2.980061</v>
+        <v>7.547331666666667</v>
       </c>
       <c r="H8">
-        <v>8.940182999999999</v>
+        <v>22.641995</v>
       </c>
       <c r="I8">
-        <v>0.1456056740620511</v>
+        <v>0.2748469656685572</v>
       </c>
       <c r="J8">
-        <v>0.1456056740620512</v>
+        <v>0.2748469656685572</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5561916666666666</v>
+        <v>0.1433513333333333</v>
       </c>
       <c r="N8">
-        <v>1.668575</v>
+        <v>0.430054</v>
       </c>
       <c r="O8">
-        <v>0.01178629317764927</v>
+        <v>0.002710896760593916</v>
       </c>
       <c r="P8">
-        <v>0.01178629317764927</v>
+        <v>0.002710896760593916</v>
       </c>
       <c r="Q8">
-        <v>1.657485094358333</v>
+        <v>1.081920057525556</v>
       </c>
       <c r="R8">
-        <v>14.917365849225</v>
+        <v>9.737280517730001</v>
       </c>
       <c r="S8">
-        <v>0.001716151162824577</v>
+        <v>0.0007450817488899588</v>
       </c>
       <c r="T8">
-        <v>0.001716151162824577</v>
+        <v>0.0007450817488899588</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>2.980061</v>
+        <v>7.547331666666667</v>
       </c>
       <c r="H9">
-        <v>8.940182999999999</v>
+        <v>22.641995</v>
       </c>
       <c r="I9">
-        <v>0.1456056740620511</v>
+        <v>0.2748469656685572</v>
       </c>
       <c r="J9">
-        <v>0.1456056740620512</v>
+        <v>0.2748469656685572</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.12631833333333</v>
+        <v>43.12631833333334</v>
       </c>
       <c r="N9">
         <v>129.378955</v>
       </c>
       <c r="O9">
-        <v>0.9138925697963186</v>
+        <v>0.8155556976531461</v>
       </c>
       <c r="P9">
-        <v>0.9138925697963185</v>
+        <v>0.8155556976531461</v>
       </c>
       <c r="Q9">
-        <v>128.5190593387516</v>
+        <v>325.488628023914</v>
       </c>
       <c r="R9">
-        <v>1156.671534048765</v>
+        <v>2929.397652215226</v>
       </c>
       <c r="S9">
-        <v>0.1330679436454931</v>
+        <v>0.2241530088336704</v>
       </c>
       <c r="T9">
-        <v>0.1330679436454931</v>
+        <v>0.2241530088336704</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>2.980061</v>
+        <v>7.547331666666667</v>
       </c>
       <c r="H10">
-        <v>8.940182999999999</v>
+        <v>22.641995</v>
       </c>
       <c r="I10">
-        <v>0.1456056740620511</v>
+        <v>0.2748469656685572</v>
       </c>
       <c r="J10">
-        <v>0.1456056740620512</v>
+        <v>0.2748469656685572</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.507192333333334</v>
+        <v>9.610002999999999</v>
       </c>
       <c r="N10">
-        <v>10.521577</v>
+        <v>28.830009</v>
       </c>
       <c r="O10">
-        <v>0.07432113702603212</v>
+        <v>0.18173340558626</v>
       </c>
       <c r="P10">
-        <v>0.0743211370260321</v>
+        <v>0.1817334055862599</v>
       </c>
       <c r="Q10">
-        <v>10.45164709206567</v>
+        <v>72.52987995866167</v>
       </c>
       <c r="R10">
-        <v>94.064823828591</v>
+        <v>652.7689196279549</v>
       </c>
       <c r="S10">
-        <v>0.01082157925373347</v>
+        <v>0.04994887508599677</v>
       </c>
       <c r="T10">
-        <v>0.01082157925373347</v>
+        <v>0.04994887508599676</v>
       </c>
     </row>
   </sheetData>
